--- a/MongoDB/container/statistic/MongoDBStat.xlsx
+++ b/MongoDB/container/statistic/MongoDBStat.xlsx
@@ -469,16 +469,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2729</v>
+        <v>2762</v>
       </c>
       <c r="C2">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="E2">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -486,16 +486,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2572</v>
+        <v>2621</v>
       </c>
       <c r="C3">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -503,16 +503,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2879</v>
+        <v>2966</v>
       </c>
       <c r="C4">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -520,16 +520,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2622</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -537,16 +537,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2707</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -554,16 +554,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3145</v>
+        <v>1155</v>
       </c>
       <c r="C7">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D7">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -571,16 +571,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1987</v>
+        <v>1904</v>
       </c>
       <c r="C8">
-        <v>1064</v>
+        <v>998</v>
       </c>
       <c r="D8">
-        <v>1715</v>
+        <v>1554</v>
       </c>
       <c r="E8">
-        <v>1600</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2248</v>
+        <v>1900</v>
       </c>
       <c r="C9">
-        <v>1114</v>
+        <v>1188</v>
       </c>
       <c r="D9">
-        <v>1637</v>
+        <v>1544</v>
       </c>
       <c r="E9">
-        <v>1617</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -605,16 +605,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2224</v>
+        <v>2515</v>
       </c>
       <c r="C10">
-        <v>2921</v>
+        <v>3082</v>
       </c>
       <c r="D10">
-        <v>1621</v>
+        <v>1671</v>
       </c>
       <c r="E10">
-        <v>1714</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -622,13 +622,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1127</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -642,13 +642,13 @@
         <v>57</v>
       </c>
       <c r="C12">
-        <v>1132</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -656,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1765</v>
+        <v>1616</v>
       </c>
       <c r="C13">
-        <v>3110</v>
+        <v>3020</v>
       </c>
       <c r="D13">
-        <v>821</v>
+        <v>737</v>
       </c>
       <c r="E13">
-        <v>880</v>
+        <v>814</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -673,16 +673,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2922</v>
+        <v>2940</v>
       </c>
       <c r="C14">
-        <v>747</v>
+        <v>772</v>
       </c>
       <c r="D14">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E14">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -690,16 +690,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2672</v>
+        <v>2831</v>
       </c>
       <c r="C15">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="D15">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="E15">
-        <v>452</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -707,16 +707,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2675</v>
+        <v>2627</v>
       </c>
       <c r="C16">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="D16">
-        <v>12665</v>
+        <v>12749</v>
       </c>
       <c r="E16">
-        <v>12460</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2622</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -741,16 +741,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2825</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E18">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -758,16 +758,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2848</v>
+        <v>759</v>
       </c>
       <c r="C19">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D19">
-        <v>11736</v>
+        <v>11593</v>
       </c>
       <c r="E19">
-        <v>11632</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -775,16 +775,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2063</v>
+        <v>1850</v>
       </c>
       <c r="C20">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="D20">
-        <v>1466</v>
+        <v>1473</v>
       </c>
       <c r="E20">
-        <v>1546</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -792,16 +792,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2149</v>
+        <v>1937</v>
       </c>
       <c r="C21">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="D21">
-        <v>1773</v>
+        <v>1592</v>
       </c>
       <c r="E21">
-        <v>1728</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -809,16 +809,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2201</v>
+        <v>1989</v>
       </c>
       <c r="C22">
-        <v>3022</v>
+        <v>3029</v>
       </c>
       <c r="D22">
-        <v>11924</v>
+        <v>12086</v>
       </c>
       <c r="E22">
-        <v>12948</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1152</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -843,16 +843,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C24">
-        <v>1267</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="E24">
-        <v>166</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -860,16 +860,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1122</v>
+        <v>1231</v>
       </c>
       <c r="C25">
-        <v>3102</v>
+        <v>2911</v>
       </c>
       <c r="D25">
-        <v>11478</v>
+        <v>11310</v>
       </c>
       <c r="E25">
-        <v>11896</v>
+        <v>3177</v>
       </c>
     </row>
   </sheetData>
